--- a/분석결과 엑셀/output_file.xlsx
+++ b/분석결과 엑셀/output_file.xlsx
@@ -1,37 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ejnu-my.sharepoint.com/personal/213945_jnu_ac_kr/Documents/2024/해커톤0813/첫차패밀리_해커톤/분석결과 엑셀/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3905473F3DB3D1159CBA8766D6FFC50" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46BA1C6E-D126-450A-927E-A9BFE8E60B17}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t>계정명</t>
+  </si>
+  <si>
+    <t>2022년</t>
+  </si>
+  <si>
+    <t>2023년</t>
+  </si>
+  <si>
+    <t>전기대비 증감율</t>
+  </si>
+  <si>
+    <t>가스수도료</t>
+  </si>
+  <si>
+    <t>감가상각비</t>
+  </si>
+  <si>
+    <t>교육훈련비</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>급여</t>
+  </si>
+  <si>
+    <t>도서인쇄비</t>
+  </si>
+  <si>
+    <t>보험료</t>
+  </si>
+  <si>
+    <t>복리후생비</t>
+  </si>
+  <si>
+    <t>상여금</t>
+  </si>
+  <si>
+    <t>소모품비</t>
+  </si>
+  <si>
+    <t>수선비</t>
+  </si>
+  <si>
+    <t>여비교통비</t>
+  </si>
+  <si>
+    <t>운반비</t>
+  </si>
+  <si>
+    <t>잡급</t>
+  </si>
+  <si>
+    <t>전력비</t>
+  </si>
+  <si>
+    <t>지급수수료</t>
+  </si>
+  <si>
+    <t>차량유지비</t>
+  </si>
+  <si>
+    <t>통신비</t>
+  </si>
+  <si>
+    <t>퇴직급여</t>
+  </si>
+  <si>
+    <t>퇴직급여(퇴직연금)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +138,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,350 +462,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>계정명</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2022년</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2023년</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>전기대비 증감율</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>가스수도료</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>143873013</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>116493106</v>
       </c>
-      <c r="D2" t="n">
-        <v>-19.03060652521401</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>감가상각비</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="D2">
+        <v>-19.030606525214012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>182882853</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>195430921</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.861259978265978</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>교육훈련비</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2186273</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>급여</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>546836695</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>394207918</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-27.9112170773397</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>도서인쇄비</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>20500</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>67500</v>
       </c>
-      <c r="D6" t="n">
-        <v>229.2682926829268</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>보험료</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6">
+        <v>229.26829268292681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>52305674</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>38945242</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-25.54298793664336</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>복리후생비</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>32011729</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>31193079</v>
       </c>
-      <c r="D8" t="n">
-        <v>-2.557343903542355</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>상여금</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="D8">
+        <v>-2.5573439035423551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>9412669</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6559430</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-30.31275188790767</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>소모품비</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>25314736</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>49879583</v>
       </c>
-      <c r="D10" t="n">
-        <v>97.03773722941452</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>수선비</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="D10">
+        <v>97.037737229414518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>190000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3586000</v>
       </c>
-      <c r="D11" t="n">
-        <v>1787.368421052632</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>여비교통비</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="D11">
+        <v>1787.3684210526319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>857100</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3463500</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>304.095204760238</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>운반비</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>446700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1614400</v>
       </c>
-      <c r="D13" t="n">
-        <v>261.4058652339378</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>잡급</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="D13">
+        <v>261.40586523393779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1880000</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>전력비</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>40777554</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>55233610</v>
       </c>
-      <c r="D15" t="n">
-        <v>35.45101307449682</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>지급수수료</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="D15">
+        <v>35.451013074496821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>11173455</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>23306780</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>108.5906284135032</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>차량유지비</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>63547486</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>58304460</v>
       </c>
-      <c r="D17" t="n">
-        <v>-8.250563995560737</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>통신비</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="D17">
+        <v>-8.2505639955607375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>2088874</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4646881</v>
       </c>
-      <c r="D18" t="n">
-        <v>122.4586547584967</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>퇴직급여</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="D18">
+        <v>122.45865475849671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>26070941</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>45246539</v>
       </c>
-      <c r="D19" t="n">
-        <v>73.55161442005488</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>퇴직급여(퇴직연금)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="D19">
+        <v>73.551614420054875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>40690504</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>94771070</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>132.9070930161003</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>